--- a/data/GroupSpec_monoclinic.xlsx
+++ b/data/GroupSpec_monoclinic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7195D903-DBBE-B140-9829-EBEABAE069BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E153CE64-1DD1-1445-91B5-5044CECDD679}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="-19540" windowWidth="29500" windowHeight="17000" activeTab="1" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="-2280" yWindow="-18460" windowWidth="29500" windowHeight="17000" activeTab="1" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -4766,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA525AC-850D-B244-AB53-A3DA79E8EC77}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/GroupSpec_monoclinic.xlsx
+++ b/data/GroupSpec_monoclinic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E153CE64-1DD1-1445-91B5-5044CECDD679}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8230A-68FA-054A-A810-1CD58E6F4804}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2280" yWindow="-18460" windowWidth="29500" windowHeight="17000" activeTab="1" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="-2280" yWindow="-18460" windowWidth="29500" windowHeight="17000" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9EF93-9C26-5E4D-979F-BFF17FE810E6}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4797</v>
+        <v>4799</v>
       </c>
       <c r="K4" t="s">
         <v>146</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F6" t="s">
         <v>155</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H12" t="s">
         <v>147</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>148</v>
@@ -1528,6 +1528,9 @@
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="E21">
+        <v>2123</v>
+      </c>
       <c r="F21" t="s">
         <v>155</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>154</v>
@@ -1712,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="K27" t="s">
         <v>146</v>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -1796,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>154</v>
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>157</v>
@@ -1898,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H33" t="s">
         <v>147</v>
@@ -1918,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
         <v>148</v>
@@ -1938,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H35" t="s">
         <v>149</v>
@@ -2025,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4886</v>
+        <v>4893</v>
       </c>
       <c r="H38" t="s">
         <v>147</v>
@@ -2048,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1783</v>
+        <v>1627</v>
       </c>
       <c r="H39" t="s">
         <v>148</v>
@@ -2071,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4894</v>
+        <v>4892</v>
       </c>
       <c r="H40" t="s">
         <v>149</v>
@@ -2167,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>4909</v>
+        <v>4912</v>
       </c>
       <c r="F43" t="s">
         <v>155</v>
@@ -2202,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
         <v>154</v>
@@ -2237,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F45" t="s">
         <v>156</v>
@@ -2353,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>4853</v>
+        <v>4871</v>
       </c>
       <c r="L49" t="s">
         <v>147</v>
@@ -2370,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>155</v>
@@ -2437,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>149</v>
@@ -2584,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
         <v>146</v>
@@ -2604,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I59" t="s">
         <v>155</v>
@@ -2804,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>154</v>
@@ -2839,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
         <v>149</v>
@@ -2923,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2969,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>3162</v>
+        <v>3156</v>
       </c>
       <c r="L72" t="s">
         <v>147</v>
@@ -3021,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>154</v>
@@ -3054,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>154</v>
@@ -3135,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I78" t="s">
         <v>148</v>
@@ -3155,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I79" t="s">
         <v>146</v>
@@ -3262,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>4883</v>
+        <v>4891</v>
       </c>
       <c r="I83" t="s">
         <v>148</v>
@@ -3285,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>2952</v>
+        <v>2777</v>
       </c>
       <c r="I84" t="s">
         <v>146</v>
@@ -3308,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>4907</v>
+        <v>4901</v>
       </c>
       <c r="I85" t="s">
         <v>155</v>
@@ -3404,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>4906</v>
+        <v>4915</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>154</v>
@@ -3439,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F89" t="s">
         <v>149</v>
@@ -3474,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F90" t="s">
         <v>156</v>
@@ -3523,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="E92">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3569,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <v>4808</v>
+        <v>4813</v>
       </c>
       <c r="J94" t="s">
         <v>148</v>
@@ -3621,7 +3624,7 @@
         <v>2</v>
       </c>
       <c r="E96">
-        <v>4862</v>
+        <v>4854</v>
       </c>
       <c r="F96" t="s">
         <v>149</v>
@@ -3653,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="E97">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
         <v>155</v>
@@ -3734,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3780,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="E102">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G102" t="s">
         <v>146</v>
@@ -3800,7 +3803,7 @@
         <v>2</v>
       </c>
       <c r="E103">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>147</v>
@@ -3820,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="E104">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G104" t="s">
         <v>154</v>
@@ -4055,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="E112">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
         <v>155</v>
@@ -4139,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4185,7 +4188,7 @@
         <v>2</v>
       </c>
       <c r="E117">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J117" t="s">
         <v>148</v>
@@ -4237,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="E119">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="F119" t="s">
         <v>149</v>
@@ -4269,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="E120">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
         <v>155</v>
@@ -4301,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="E121">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F121" t="s">
         <v>156</v>
@@ -4350,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="E123">
-        <v>2877</v>
+        <v>2871</v>
       </c>
       <c r="G123" t="s">
         <v>146</v>
@@ -4370,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="E124">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
         <v>147</v>
@@ -4390,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="E125">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="G125" t="s">
         <v>154</v>
@@ -4477,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="E128">
-        <v>4866</v>
+        <v>4895</v>
       </c>
       <c r="G128" t="s">
         <v>146</v>
@@ -4500,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="E129">
-        <v>3526</v>
+        <v>3346</v>
       </c>
       <c r="G129" t="s">
         <v>147</v>
@@ -4619,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>4916</v>
+        <v>4911</v>
       </c>
       <c r="F133" t="s">
         <v>149</v>
@@ -4654,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="F134" t="s">
         <v>155</v>
@@ -4689,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>2942</v>
+        <v>2934</v>
       </c>
       <c r="F135" t="s">
         <v>156</v>
@@ -4766,8 +4769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA525AC-850D-B244-AB53-A3DA79E8EC77}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5367,6 +5370,9 @@
       <c r="D27" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="E27">
+        <v>2123</v>
+      </c>
       <c r="F27" t="s">
         <v>155</v>
       </c>

--- a/data/GroupSpec_monoclinic.xlsx
+++ b/data/GroupSpec_monoclinic.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C8230A-68FA-054A-A810-1CD58E6F4804}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67838449-D711-524E-BB9F-7AA3A4B732D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2280" yWindow="-18460" windowWidth="29500" windowHeight="17000" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="-2280" yWindow="-18460" windowWidth="29500" windowHeight="17000" activeTab="2" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Groups V0" sheetId="2" r:id="rId2"/>
+    <sheet name="Groups V1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="189">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -566,6 +567,33 @@
   </si>
   <si>
     <t>C 1 c 1</t>
+  </si>
+  <si>
+    <t>monoclinic_0_05</t>
+  </si>
+  <si>
+    <t>monoclinic_0_06</t>
+  </si>
+  <si>
+    <t>monoclinic_0_07</t>
+  </si>
+  <si>
+    <t>monoclinic_1_05</t>
+  </si>
+  <si>
+    <t>monoclinic_1_06</t>
+  </si>
+  <si>
+    <t>monoclinic_1_07</t>
+  </si>
+  <si>
+    <t>monoclinic_2_05</t>
+  </si>
+  <si>
+    <t>monoclinic_2_06</t>
+  </si>
+  <si>
+    <t>monoclinic_2_07</t>
   </si>
 </sst>
 </file>
@@ -927,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9EF93-9C26-5E4D-979F-BFF17FE810E6}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -4767,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA525AC-850D-B244-AB53-A3DA79E8EC77}">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5511,10 +5539,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5523,19 +5551,10 @@
         <v>168</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" t="s">
-        <v>158</v>
+        <v>4894</v>
       </c>
       <c r="H31" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J31" t="s">
         <v>148</v>
@@ -5549,10 +5568,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5561,10 +5580,19 @@
         <v>168</v>
       </c>
       <c r="E32">
-        <v>4894</v>
+        <v>4909</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
+        <v>146</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="I32" t="s">
+        <v>155</v>
       </c>
       <c r="J32" t="s">
         <v>148</v>
@@ -5581,7 +5609,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5590,19 +5618,19 @@
         <v>168</v>
       </c>
       <c r="E33">
-        <v>4909</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H33" t="s">
         <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J33" t="s">
         <v>148</v>
@@ -5619,7 +5647,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5628,10 +5656,10 @@
         <v>168</v>
       </c>
       <c r="E34">
-        <v>57</v>
+        <v>470</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G34" t="s">
         <v>154</v>
@@ -5640,7 +5668,7 @@
         <v>150</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="J34" t="s">
         <v>148</v>
@@ -5654,10 +5682,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5666,7 +5694,7 @@
         <v>168</v>
       </c>
       <c r="E35">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
         <v>156</v>
@@ -5675,7 +5703,7 @@
         <v>154</v>
       </c>
       <c r="H35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I35" t="s">
         <v>155</v>
@@ -5690,50 +5718,29 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J36" t="s">
-        <v>148</v>
-      </c>
-      <c r="K36" t="s">
-        <v>146</v>
-      </c>
-      <c r="L36" t="s">
-        <v>147</v>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -5742,15 +5749,15 @@
         <v>169</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -5759,15 +5766,15 @@
         <v>169</v>
       </c>
       <c r="E40">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -5776,15 +5783,21 @@
         <v>169</v>
       </c>
       <c r="E41">
-        <v>42</v>
+        <v>634</v>
+      </c>
+      <c r="I41" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -5793,7 +5806,7 @@
         <v>169</v>
       </c>
       <c r="E42">
-        <v>634</v>
+        <v>213</v>
       </c>
       <c r="I42" t="s">
         <v>148</v>
@@ -5804,10 +5817,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -5816,21 +5829,21 @@
         <v>169</v>
       </c>
       <c r="E43">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
-      </c>
-      <c r="J43" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="K43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -5839,7 +5852,7 @@
         <v>169</v>
       </c>
       <c r="E44">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I44" t="s">
         <v>146</v>
@@ -5850,10 +5863,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -5862,21 +5875,18 @@
         <v>169</v>
       </c>
       <c r="E45">
-        <v>10</v>
-      </c>
-      <c r="I45" t="s">
-        <v>146</v>
-      </c>
-      <c r="K45" t="s">
-        <v>146</v>
+        <v>4853</v>
+      </c>
+      <c r="L45" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -5885,38 +5895,44 @@
         <v>169</v>
       </c>
       <c r="E46">
-        <v>4853</v>
+        <v>3162</v>
       </c>
       <c r="L46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47">
-        <v>3162</v>
-      </c>
-      <c r="L47" t="s">
-        <v>147</v>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49">
+        <v>180</v>
+      </c>
+      <c r="I49" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5925,7 +5941,7 @@
         <v>170</v>
       </c>
       <c r="E50">
-        <v>180</v>
+        <v>546</v>
       </c>
       <c r="I50" t="s">
         <v>155</v>
@@ -5937,38 +5953,47 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51">
-        <v>546</v>
-      </c>
-      <c r="I51" t="s">
-        <v>155</v>
-      </c>
-      <c r="J51" t="s">
-        <v>148</v>
-      </c>
-      <c r="K51" t="s">
-        <v>146</v>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53">
+        <v>403</v>
+      </c>
+      <c r="F53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" t="s">
+        <v>146</v>
+      </c>
+      <c r="L53" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5977,7 +6002,7 @@
         <v>171</v>
       </c>
       <c r="E54">
-        <v>403</v>
+        <v>228</v>
       </c>
       <c r="F54" t="s">
         <v>154</v>
@@ -6000,10 +6025,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -6012,24 +6037,25 @@
         <v>171</v>
       </c>
       <c r="E55">
-        <v>228</v>
-      </c>
-      <c r="F55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" t="s">
-        <v>154</v>
-      </c>
-      <c r="H55" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" t="s">
-        <v>146</v>
-      </c>
-      <c r="K55" t="s">
-        <v>146</v>
-      </c>
-      <c r="L55" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6038,7 +6064,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -6047,34 +6073,33 @@
         <v>171</v>
       </c>
       <c r="E56">
-        <v>1654</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" t="s">
+        <v>147</v>
+      </c>
+      <c r="I56" t="s">
+        <v>146</v>
+      </c>
+      <c r="K56" t="s">
+        <v>146</v>
+      </c>
+      <c r="L56" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -6083,16 +6108,7 @@
         <v>171</v>
       </c>
       <c r="E57">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" t="s">
-        <v>154</v>
-      </c>
-      <c r="H57" t="s">
-        <v>147</v>
+        <v>2952</v>
       </c>
       <c r="I57" t="s">
         <v>146</v>
@@ -6104,38 +6120,47 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>14</v>
-      </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58">
-        <v>2952</v>
-      </c>
-      <c r="I58" t="s">
-        <v>146</v>
-      </c>
-      <c r="K58" t="s">
-        <v>146</v>
-      </c>
-      <c r="L58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" t="s">
+        <v>148</v>
+      </c>
+      <c r="J60" t="s">
+        <v>148</v>
+      </c>
+      <c r="L60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -6144,7 +6169,7 @@
         <v>172</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>149</v>
@@ -6165,12 +6190,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -6179,16 +6204,7 @@
         <v>172</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>149</v>
-      </c>
-      <c r="G62" t="s">
-        <v>147</v>
-      </c>
-      <c r="H62" t="s">
-        <v>149</v>
+        <v>4883</v>
       </c>
       <c r="I62" t="s">
         <v>148</v>
@@ -6200,38 +6216,50 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>14</v>
-      </c>
-      <c r="B63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63">
-        <v>4883</v>
-      </c>
-      <c r="I63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J63" t="s">
-        <v>148</v>
-      </c>
-      <c r="L63" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" t="s">
+        <v>149</v>
+      </c>
+      <c r="I65" t="s">
+        <v>155</v>
+      </c>
+      <c r="J65" t="s">
+        <v>148</v>
+      </c>
+      <c r="K65" t="s">
+        <v>146</v>
+      </c>
+      <c r="L65" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6240,27 +6268,27 @@
         <v>173</v>
       </c>
       <c r="E66">
-        <v>21</v>
-      </c>
-      <c r="F66" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" t="s">
-        <v>154</v>
-      </c>
-      <c r="H66" t="s">
-        <v>149</v>
-      </c>
-      <c r="I66" t="s">
-        <v>155</v>
-      </c>
-      <c r="J66" t="s">
-        <v>148</v>
-      </c>
-      <c r="K66" t="s">
-        <v>146</v>
-      </c>
-      <c r="L66" t="s">
+        <v>3485</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6269,7 +6297,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6278,27 +6306,27 @@
         <v>173</v>
       </c>
       <c r="E67">
-        <v>3485</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>149</v>
+      </c>
+      <c r="G67" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" t="s">
+        <v>149</v>
+      </c>
+      <c r="I67" t="s">
         <v>159</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L67" s="1" t="s">
+      <c r="J67" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" t="s">
+        <v>146</v>
+      </c>
+      <c r="L67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6307,7 +6335,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6316,13 +6344,13 @@
         <v>173</v>
       </c>
       <c r="E68">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H68" t="s">
         <v>149</v>
@@ -6342,10 +6370,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6354,7 +6382,7 @@
         <v>173</v>
       </c>
       <c r="E69">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
         <v>156</v>
@@ -6366,7 +6394,7 @@
         <v>149</v>
       </c>
       <c r="I69" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J69" t="s">
         <v>148</v>
@@ -6380,10 +6408,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6392,16 +6420,7 @@
         <v>173</v>
       </c>
       <c r="E70">
-        <v>35</v>
-      </c>
-      <c r="F70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G70" t="s">
-        <v>154</v>
-      </c>
-      <c r="H70" t="s">
-        <v>149</v>
+        <v>4907</v>
       </c>
       <c r="I70" t="s">
         <v>155</v>
@@ -6418,10 +6437,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6430,18 +6449,27 @@
         <v>173</v>
       </c>
       <c r="E71">
-        <v>4907</v>
-      </c>
-      <c r="I71" t="s">
-        <v>155</v>
-      </c>
-      <c r="J71" t="s">
-        <v>148</v>
-      </c>
-      <c r="K71" t="s">
-        <v>146</v>
-      </c>
-      <c r="L71" t="s">
+        <v>4906</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6450,7 +6478,7 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6459,27 +6487,27 @@
         <v>173</v>
       </c>
       <c r="E72">
-        <v>4906</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" t="s">
+        <v>149</v>
+      </c>
+      <c r="I72" t="s">
         <v>159</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L72" s="1" t="s">
+      <c r="J72" t="s">
+        <v>148</v>
+      </c>
+      <c r="K72" t="s">
+        <v>146</v>
+      </c>
+      <c r="L72" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6488,7 +6516,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6497,13 +6525,13 @@
         <v>173</v>
       </c>
       <c r="E73">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="F73" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G73" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H73" t="s">
         <v>149</v>
@@ -6523,10 +6551,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6535,19 +6563,19 @@
         <v>173</v>
       </c>
       <c r="E74">
-        <v>436</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I74" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J74" t="s">
         <v>148</v>
@@ -6561,10 +6589,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6573,16 +6601,16 @@
         <v>173</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="F75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G75" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I75" t="s">
         <v>155</v>
@@ -6597,50 +6625,29 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>12</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E76">
-        <v>169</v>
-      </c>
-      <c r="F76" t="s">
-        <v>156</v>
-      </c>
-      <c r="G76" t="s">
-        <v>154</v>
-      </c>
-      <c r="H76" t="s">
-        <v>149</v>
-      </c>
-      <c r="I76" t="s">
-        <v>155</v>
-      </c>
-      <c r="J76" t="s">
-        <v>148</v>
-      </c>
-      <c r="K76" t="s">
-        <v>146</v>
-      </c>
-      <c r="L76" t="s">
-        <v>147</v>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78">
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6649,15 +6656,15 @@
         <v>174</v>
       </c>
       <c r="E79">
-        <v>118</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -6666,15 +6673,15 @@
         <v>174</v>
       </c>
       <c r="E80">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -6683,15 +6690,18 @@
         <v>174</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>4808</v>
+      </c>
+      <c r="J81" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -6700,7 +6710,7 @@
         <v>174</v>
       </c>
       <c r="E82">
-        <v>4808</v>
+        <v>848</v>
       </c>
       <c r="J82" t="s">
         <v>148</v>
@@ -6708,10 +6718,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -6720,18 +6730,21 @@
         <v>174</v>
       </c>
       <c r="E83">
-        <v>848</v>
-      </c>
-      <c r="J83" t="s">
-        <v>148</v>
+        <v>923</v>
+      </c>
+      <c r="G83" t="s">
+        <v>146</v>
+      </c>
+      <c r="K83" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -6740,7 +6753,7 @@
         <v>174</v>
       </c>
       <c r="E84">
-        <v>923</v>
+        <v>2877</v>
       </c>
       <c r="G84" t="s">
         <v>146</v>
@@ -6751,10 +6764,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -6763,21 +6776,21 @@
         <v>174</v>
       </c>
       <c r="E85">
-        <v>2877</v>
+        <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>146</v>
-      </c>
-      <c r="K85" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="L85" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -6786,7 +6799,7 @@
         <v>174</v>
       </c>
       <c r="E86">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="G86" t="s">
         <v>147</v>
@@ -6795,35 +6808,47 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E87">
-        <v>154</v>
-      </c>
-      <c r="G87" t="s">
-        <v>147</v>
-      </c>
-      <c r="L87" t="s">
-        <v>147</v>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E89">
+        <v>49</v>
+      </c>
+      <c r="F89" t="s">
+        <v>155</v>
+      </c>
+      <c r="G89" t="s">
+        <v>146</v>
+      </c>
+      <c r="H89" t="s">
+        <v>148</v>
+      </c>
+      <c r="I89" t="s">
+        <v>155</v>
+      </c>
+      <c r="J89" t="s">
+        <v>148</v>
+      </c>
+      <c r="K89" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -6832,7 +6857,7 @@
         <v>175</v>
       </c>
       <c r="E90">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
         <v>155</v>
@@ -6853,47 +6878,38 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>12</v>
-      </c>
-      <c r="B91" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E91">
-        <v>16</v>
-      </c>
-      <c r="F91" t="s">
-        <v>155</v>
-      </c>
-      <c r="G91" t="s">
-        <v>146</v>
-      </c>
-      <c r="H91" t="s">
-        <v>148</v>
-      </c>
-      <c r="I91" t="s">
-        <v>155</v>
-      </c>
-      <c r="J91" t="s">
-        <v>148</v>
-      </c>
-      <c r="K91" t="s">
-        <v>146</v>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93">
+        <v>688</v>
+      </c>
+      <c r="G93" t="s">
+        <v>154</v>
+      </c>
+      <c r="K93" t="s">
+        <v>146</v>
+      </c>
+      <c r="L93" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -6902,7 +6918,7 @@
         <v>176</v>
       </c>
       <c r="E94">
-        <v>688</v>
+        <v>1993</v>
       </c>
       <c r="G94" t="s">
         <v>154</v>
@@ -6914,38 +6930,47 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>13</v>
-      </c>
-      <c r="B95" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E95">
-        <v>1993</v>
-      </c>
-      <c r="G95" t="s">
-        <v>154</v>
-      </c>
-      <c r="K95" t="s">
-        <v>146</v>
-      </c>
-      <c r="L95" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97">
+        <v>4862</v>
+      </c>
+      <c r="F97" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97" t="s">
+        <v>147</v>
+      </c>
+      <c r="H97" t="s">
+        <v>149</v>
+      </c>
+      <c r="I97" t="s">
+        <v>148</v>
+      </c>
+      <c r="J97" t="s">
+        <v>148</v>
+      </c>
+      <c r="L97" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -6954,7 +6979,7 @@
         <v>177</v>
       </c>
       <c r="E98">
-        <v>4862</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
         <v>149</v>
@@ -6977,10 +7002,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -6989,7 +7014,7 @@
         <v>177</v>
       </c>
       <c r="E99">
-        <v>29</v>
+        <v>1644</v>
       </c>
       <c r="F99" t="s">
         <v>149</v>
@@ -7012,10 +7037,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -7024,20 +7049,11 @@
         <v>177</v>
       </c>
       <c r="E100">
-        <v>1644</v>
-      </c>
-      <c r="F100" t="s">
-        <v>149</v>
+        <v>4866</v>
       </c>
       <c r="G100" t="s">
         <v>147</v>
       </c>
-      <c r="H100" t="s">
-        <v>149</v>
-      </c>
-      <c r="I100" t="s">
-        <v>148</v>
-      </c>
       <c r="J100" t="s">
         <v>148</v>
       </c>
@@ -7045,38 +7061,50 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>14</v>
-      </c>
-      <c r="B101" t="s">
-        <v>137</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101">
-        <v>4866</v>
-      </c>
-      <c r="G101" t="s">
-        <v>147</v>
-      </c>
-      <c r="J101" t="s">
-        <v>148</v>
-      </c>
-      <c r="L101" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103">
+        <v>363</v>
+      </c>
+      <c r="F103" t="s">
+        <v>156</v>
+      </c>
+      <c r="G103" t="s">
+        <v>154</v>
+      </c>
+      <c r="H103" t="s">
+        <v>149</v>
+      </c>
+      <c r="I103" t="s">
+        <v>155</v>
+      </c>
+      <c r="J103" t="s">
+        <v>148</v>
+      </c>
+      <c r="K103" t="s">
+        <v>146</v>
+      </c>
+      <c r="L103" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -7085,19 +7113,19 @@
         <v>178</v>
       </c>
       <c r="E104">
-        <v>363</v>
+        <v>3651</v>
       </c>
       <c r="F104" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G104" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H104" t="s">
         <v>149</v>
       </c>
       <c r="I104" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J104" t="s">
         <v>148</v>
@@ -7114,7 +7142,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -7123,19 +7151,19 @@
         <v>178</v>
       </c>
       <c r="E105">
-        <v>3651</v>
+        <v>21</v>
       </c>
       <c r="F105" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G105" t="s">
         <v>158</v>
       </c>
       <c r="H105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I105" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J105" t="s">
         <v>148</v>
@@ -7152,7 +7180,7 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -7161,16 +7189,16 @@
         <v>178</v>
       </c>
       <c r="E106">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="F106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G106" t="s">
         <v>158</v>
       </c>
       <c r="H106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I106" t="s">
         <v>155</v>
@@ -7187,10 +7215,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -7199,13 +7227,13 @@
         <v>178</v>
       </c>
       <c r="E107">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F107" t="s">
         <v>156</v>
       </c>
       <c r="G107" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H107" t="s">
         <v>149</v>
@@ -7225,10 +7253,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -7237,19 +7265,10 @@
         <v>178</v>
       </c>
       <c r="E108">
-        <v>125</v>
-      </c>
-      <c r="F108" t="s">
-        <v>156</v>
+        <v>3526</v>
       </c>
       <c r="G108" t="s">
         <v>154</v>
-      </c>
-      <c r="H108" t="s">
-        <v>149</v>
-      </c>
-      <c r="I108" t="s">
-        <v>155</v>
       </c>
       <c r="J108" t="s">
         <v>148</v>
@@ -7266,7 +7285,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -7275,7 +7294,7 @@
         <v>178</v>
       </c>
       <c r="E109">
-        <v>3526</v>
+        <v>4892</v>
       </c>
       <c r="G109" t="s">
         <v>154</v>
@@ -7292,10 +7311,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -7304,10 +7323,19 @@
         <v>178</v>
       </c>
       <c r="E110">
-        <v>4892</v>
+        <v>4916</v>
+      </c>
+      <c r="F110" t="s">
+        <v>149</v>
       </c>
       <c r="G110" t="s">
-        <v>154</v>
+        <v>158</v>
+      </c>
+      <c r="H110" t="s">
+        <v>149</v>
+      </c>
+      <c r="I110" t="s">
+        <v>148</v>
       </c>
       <c r="J110" t="s">
         <v>148</v>
@@ -7324,7 +7352,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -7333,19 +7361,19 @@
         <v>178</v>
       </c>
       <c r="E111">
-        <v>4916</v>
+        <v>226</v>
       </c>
       <c r="F111" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G111" t="s">
         <v>158</v>
       </c>
       <c r="H111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I111" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J111" t="s">
         <v>148</v>
@@ -7362,7 +7390,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -7371,16 +7399,16 @@
         <v>178</v>
       </c>
       <c r="E112">
-        <v>226</v>
+        <v>2942</v>
       </c>
       <c r="F112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G112" t="s">
         <v>158</v>
       </c>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I112" t="s">
         <v>155</v>
@@ -7395,64 +7423,2706 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>15</v>
-      </c>
-      <c r="B113" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E113">
-        <v>2942</v>
-      </c>
-      <c r="F113" t="s">
-        <v>156</v>
-      </c>
-      <c r="G113" t="s">
-        <v>158</v>
-      </c>
-      <c r="H113" t="s">
-        <v>149</v>
-      </c>
-      <c r="I113" t="s">
-        <v>155</v>
-      </c>
-      <c r="J113" t="s">
-        <v>148</v>
-      </c>
-      <c r="K113" t="s">
-        <v>146</v>
-      </c>
-      <c r="L113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DFFAFD-7483-144A-957A-73E2CBBDDA77}">
+  <dimension ref="A1:L142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7">
+        <v>4797</v>
+      </c>
+      <c r="K7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8">
+        <v>776</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9">
+        <v>689</v>
+      </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10">
+        <v>777</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12">
+        <v>1162</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14">
+        <v>1655</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16">
+        <v>1783</v>
+      </c>
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21">
+        <v>4886</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23">
+        <v>616</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24">
+        <v>509</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" t="s">
+        <v>146</v>
+      </c>
+      <c r="L27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28">
+        <v>109</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29">
+        <v>470</v>
+      </c>
+      <c r="F29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" t="s">
+        <v>146</v>
+      </c>
+      <c r="L29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32">
+        <v>2123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" t="s">
+        <v>155</v>
+      </c>
+      <c r="J32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" t="s">
+        <v>146</v>
+      </c>
+      <c r="L33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34">
+        <v>4909</v>
+      </c>
+      <c r="F34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" t="s">
+        <v>148</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37">
+        <v>4894</v>
+      </c>
+      <c r="H37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42">
+        <v>634</v>
+      </c>
+      <c r="I42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43">
+        <v>213</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>146</v>
+      </c>
+      <c r="K44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46">
+        <v>4853</v>
+      </c>
+      <c r="L46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47">
+        <v>3162</v>
+      </c>
+      <c r="L47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49">
+        <v>180</v>
+      </c>
+      <c r="I49" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" t="s">
+        <v>148</v>
+      </c>
+      <c r="K49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50">
+        <v>546</v>
+      </c>
+      <c r="I50" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52">
+        <v>403</v>
+      </c>
+      <c r="F52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" t="s">
+        <v>147</v>
+      </c>
+      <c r="I52" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" t="s">
+        <v>146</v>
+      </c>
+      <c r="L52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53">
+        <v>228</v>
+      </c>
+      <c r="F53" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" t="s">
+        <v>146</v>
+      </c>
+      <c r="L53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54">
+        <v>1654</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" t="s">
+        <v>146</v>
+      </c>
+      <c r="K55" t="s">
+        <v>146</v>
+      </c>
+      <c r="L55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57">
+        <v>2952</v>
+      </c>
+      <c r="I57" t="s">
+        <v>146</v>
+      </c>
+      <c r="K57" t="s">
+        <v>146</v>
+      </c>
+      <c r="L57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H59" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" t="s">
+        <v>148</v>
+      </c>
+      <c r="J59" t="s">
+        <v>148</v>
+      </c>
+      <c r="L59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" t="s">
+        <v>148</v>
+      </c>
+      <c r="J60" t="s">
+        <v>148</v>
+      </c>
+      <c r="L60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61">
+        <v>4883</v>
+      </c>
+      <c r="I61" t="s">
+        <v>148</v>
+      </c>
+      <c r="J61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" t="s">
+        <v>154</v>
+      </c>
+      <c r="H63" t="s">
+        <v>149</v>
+      </c>
+      <c r="I63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" t="s">
+        <v>146</v>
+      </c>
+      <c r="L63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64">
+        <v>128</v>
+      </c>
+      <c r="F64" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" t="s">
+        <v>154</v>
+      </c>
+      <c r="H64" t="s">
+        <v>149</v>
+      </c>
+      <c r="I64" t="s">
+        <v>159</v>
+      </c>
+      <c r="J64" t="s">
+        <v>148</v>
+      </c>
+      <c r="K64" t="s">
+        <v>146</v>
+      </c>
+      <c r="L64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" t="s">
+        <v>149</v>
+      </c>
+      <c r="I65" t="s">
+        <v>155</v>
+      </c>
+      <c r="J65" t="s">
+        <v>148</v>
+      </c>
+      <c r="K65" t="s">
+        <v>146</v>
+      </c>
+      <c r="L65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66">
+        <v>436</v>
+      </c>
+      <c r="F66" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" t="s">
+        <v>149</v>
+      </c>
+      <c r="I66" t="s">
+        <v>159</v>
+      </c>
+      <c r="J66" t="s">
+        <v>148</v>
+      </c>
+      <c r="K66" t="s">
+        <v>146</v>
+      </c>
+      <c r="L66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67">
+        <v>169</v>
+      </c>
+      <c r="F67" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" t="s">
+        <v>154</v>
+      </c>
+      <c r="H67" t="s">
+        <v>149</v>
+      </c>
+      <c r="I67" t="s">
+        <v>155</v>
+      </c>
+      <c r="J67" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" t="s">
+        <v>146</v>
+      </c>
+      <c r="L67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69">
+        <v>3485</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" t="s">
+        <v>147</v>
+      </c>
+      <c r="H70" t="s">
+        <v>149</v>
+      </c>
+      <c r="I70" t="s">
+        <v>159</v>
+      </c>
+      <c r="J70" t="s">
+        <v>148</v>
+      </c>
+      <c r="K70" t="s">
+        <v>146</v>
+      </c>
+      <c r="L70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71">
+        <v>4906</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" t="s">
+        <v>149</v>
+      </c>
+      <c r="I72" t="s">
+        <v>159</v>
+      </c>
+      <c r="J72" t="s">
+        <v>148</v>
+      </c>
+      <c r="K72" t="s">
+        <v>146</v>
+      </c>
+      <c r="L72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" t="s">
+        <v>148</v>
+      </c>
+      <c r="I73" t="s">
+        <v>155</v>
+      </c>
+      <c r="J73" t="s">
+        <v>148</v>
+      </c>
+      <c r="K73" t="s">
+        <v>146</v>
+      </c>
+      <c r="L73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75">
+        <v>4907</v>
+      </c>
+      <c r="I75" t="s">
+        <v>155</v>
+      </c>
+      <c r="J75" t="s">
+        <v>148</v>
+      </c>
+      <c r="K75" t="s">
+        <v>146</v>
+      </c>
+      <c r="L75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80">
+        <v>4808</v>
+      </c>
+      <c r="J80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81">
+        <v>848</v>
+      </c>
+      <c r="J81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82">
+        <v>923</v>
+      </c>
+      <c r="G82" t="s">
+        <v>146</v>
+      </c>
+      <c r="K82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83">
+        <v>2877</v>
+      </c>
+      <c r="G83" t="s">
+        <v>146</v>
+      </c>
+      <c r="K83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84">
+        <v>41</v>
+      </c>
+      <c r="G84" t="s">
+        <v>147</v>
+      </c>
+      <c r="L84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85">
+        <v>154</v>
+      </c>
+      <c r="G85" t="s">
+        <v>147</v>
+      </c>
+      <c r="L85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87">
+        <v>49</v>
+      </c>
+      <c r="F87" t="s">
+        <v>155</v>
+      </c>
+      <c r="G87" t="s">
+        <v>146</v>
+      </c>
+      <c r="H87" t="s">
+        <v>148</v>
+      </c>
+      <c r="I87" t="s">
+        <v>155</v>
+      </c>
+      <c r="J87" t="s">
+        <v>148</v>
+      </c>
+      <c r="K87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" t="s">
+        <v>146</v>
+      </c>
+      <c r="H88" t="s">
+        <v>148</v>
+      </c>
+      <c r="I88" t="s">
+        <v>155</v>
+      </c>
+      <c r="J88" t="s">
+        <v>148</v>
+      </c>
+      <c r="K88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90">
+        <v>688</v>
+      </c>
+      <c r="G90" t="s">
+        <v>154</v>
+      </c>
+      <c r="K90" t="s">
+        <v>146</v>
+      </c>
+      <c r="L90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91">
+        <v>1993</v>
+      </c>
+      <c r="G91" t="s">
+        <v>154</v>
+      </c>
+      <c r="K91" t="s">
+        <v>146</v>
+      </c>
+      <c r="L91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93">
+        <v>4862</v>
+      </c>
+      <c r="F93" t="s">
+        <v>149</v>
+      </c>
+      <c r="G93" t="s">
+        <v>147</v>
+      </c>
+      <c r="H93" t="s">
+        <v>149</v>
+      </c>
+      <c r="I93" t="s">
+        <v>148</v>
+      </c>
+      <c r="J93" t="s">
+        <v>148</v>
+      </c>
+      <c r="L93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94">
+        <v>29</v>
+      </c>
+      <c r="F94" t="s">
+        <v>149</v>
+      </c>
+      <c r="G94" t="s">
+        <v>147</v>
+      </c>
+      <c r="H94" t="s">
+        <v>149</v>
+      </c>
+      <c r="I94" t="s">
+        <v>148</v>
+      </c>
+      <c r="J94" t="s">
+        <v>148</v>
+      </c>
+      <c r="L94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96">
+        <v>1644</v>
+      </c>
+      <c r="F96" t="s">
+        <v>149</v>
+      </c>
+      <c r="G96" t="s">
+        <v>147</v>
+      </c>
+      <c r="H96" t="s">
+        <v>149</v>
+      </c>
+      <c r="I96" t="s">
+        <v>148</v>
+      </c>
+      <c r="J96" t="s">
+        <v>148</v>
+      </c>
+      <c r="L96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97">
+        <v>4866</v>
+      </c>
+      <c r="G97" t="s">
+        <v>147</v>
+      </c>
+      <c r="J97" t="s">
+        <v>148</v>
+      </c>
+      <c r="L97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99">
+        <v>363</v>
+      </c>
+      <c r="F99" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99" t="s">
+        <v>154</v>
+      </c>
+      <c r="H99" t="s">
+        <v>149</v>
+      </c>
+      <c r="I99" t="s">
+        <v>155</v>
+      </c>
+      <c r="J99" t="s">
+        <v>148</v>
+      </c>
+      <c r="K99" t="s">
+        <v>146</v>
+      </c>
+      <c r="L99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100">
+        <v>132</v>
+      </c>
+      <c r="F100" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" t="s">
+        <v>158</v>
+      </c>
+      <c r="H100" t="s">
+        <v>149</v>
+      </c>
+      <c r="I100" t="s">
+        <v>155</v>
+      </c>
+      <c r="J100" t="s">
+        <v>148</v>
+      </c>
+      <c r="K100" t="s">
+        <v>146</v>
+      </c>
+      <c r="L100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101">
+        <v>125</v>
+      </c>
+      <c r="F101" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" t="s">
+        <v>154</v>
+      </c>
+      <c r="H101" t="s">
+        <v>149</v>
+      </c>
+      <c r="I101" t="s">
+        <v>155</v>
+      </c>
+      <c r="J101" t="s">
+        <v>148</v>
+      </c>
+      <c r="K101" t="s">
+        <v>146</v>
+      </c>
+      <c r="L101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102">
+        <v>2942</v>
+      </c>
+      <c r="F102" t="s">
+        <v>156</v>
+      </c>
+      <c r="G102" t="s">
+        <v>158</v>
+      </c>
+      <c r="H102" t="s">
+        <v>149</v>
+      </c>
+      <c r="I102" t="s">
+        <v>155</v>
+      </c>
+      <c r="J102" t="s">
+        <v>148</v>
+      </c>
+      <c r="K102" t="s">
+        <v>146</v>
+      </c>
+      <c r="L102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E104">
+        <v>3651</v>
+      </c>
+      <c r="F104" t="s">
+        <v>149</v>
+      </c>
+      <c r="G104" t="s">
+        <v>158</v>
+      </c>
+      <c r="H104" t="s">
+        <v>149</v>
+      </c>
+      <c r="I104" t="s">
+        <v>148</v>
+      </c>
+      <c r="J104" t="s">
+        <v>148</v>
+      </c>
+      <c r="K104" t="s">
+        <v>146</v>
+      </c>
+      <c r="L104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E105">
+        <v>21</v>
+      </c>
+      <c r="F105" t="s">
+        <v>155</v>
+      </c>
+      <c r="G105" t="s">
+        <v>158</v>
+      </c>
+      <c r="H105" t="s">
+        <v>148</v>
+      </c>
+      <c r="I105" t="s">
+        <v>155</v>
+      </c>
+      <c r="J105" t="s">
+        <v>148</v>
+      </c>
+      <c r="K105" t="s">
+        <v>146</v>
+      </c>
+      <c r="L105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E106">
+        <v>4916</v>
+      </c>
+      <c r="F106" t="s">
+        <v>149</v>
+      </c>
+      <c r="G106" t="s">
+        <v>158</v>
+      </c>
+      <c r="H106" t="s">
+        <v>149</v>
+      </c>
+      <c r="I106" t="s">
+        <v>148</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+      <c r="K106" t="s">
+        <v>146</v>
+      </c>
+      <c r="L106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E107">
+        <v>226</v>
+      </c>
+      <c r="F107" t="s">
+        <v>155</v>
+      </c>
+      <c r="G107" t="s">
+        <v>158</v>
+      </c>
+      <c r="H107" t="s">
+        <v>148</v>
+      </c>
+      <c r="I107" t="s">
+        <v>155</v>
+      </c>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107" t="s">
+        <v>146</v>
+      </c>
+      <c r="L107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E109">
+        <v>3526</v>
+      </c>
+      <c r="G109" t="s">
+        <v>154</v>
+      </c>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+      <c r="K109" t="s">
+        <v>146</v>
+      </c>
+      <c r="L109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E110">
+        <v>4892</v>
+      </c>
+      <c r="G110" t="s">
+        <v>154</v>
+      </c>
+      <c r="J110" t="s">
+        <v>148</v>
+      </c>
+      <c r="K110" t="s">
+        <v>146</v>
+      </c>
+      <c r="L110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>

--- a/data/GroupSpec_monoclinic.xlsx
+++ b/data/GroupSpec_monoclinic.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67838449-D711-524E-BB9F-7AA3A4B732D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0E225-4A62-7B44-9E37-24A01468CF8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2280" yWindow="-18460" windowWidth="29500" windowHeight="17000" activeTab="2" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="400" yWindow="1560" windowWidth="29500" windowHeight="17000" activeTab="3" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Groups V0" sheetId="2" r:id="rId2"/>
     <sheet name="Groups V1" sheetId="3" r:id="rId3"/>
+    <sheet name="Groups V2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="200">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -594,6 +595,39 @@
   </si>
   <si>
     <t>monoclinic_2_07</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>acb</t>
+  </si>
+  <si>
+    <t>cab</t>
+  </si>
+  <si>
+    <t>cba</t>
+  </si>
+  <si>
+    <t>bac</t>
+  </si>
+  <si>
+    <t>bca</t>
+  </si>
+  <si>
+    <t>monoclinic_00</t>
+  </si>
+  <si>
+    <t>monoclinic_01</t>
+  </si>
+  <si>
+    <t>monoclinic_02</t>
+  </si>
+  <si>
+    <t>monoclinic_03</t>
+  </si>
+  <si>
+    <t>total counts</t>
   </si>
 </sst>
 </file>
@@ -956,7 +990,7 @@
   <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7462,8 +7496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DFFAFD-7483-144A-957A-73E2CBBDDA77}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10136,4 +10170,849 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB10BC37-39A0-404D-8981-2DDCADDC0F1B}">
+  <dimension ref="A1:R63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2">
+        <v>140</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>102</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4">
+        <v>183</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>97</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5">
+        <v>24186</v>
+      </c>
+      <c r="F5">
+        <v>5948</v>
+      </c>
+      <c r="G5">
+        <v>10321</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7914</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6">
+        <v>4553</v>
+      </c>
+      <c r="F6">
+        <v>824</v>
+      </c>
+      <c r="G6">
+        <v>2795</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>934</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>6850</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:K7" si="0">SUM(G2:G6)</f>
+        <v>13192</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>9068</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9">
+        <f>SUM(F9:K9)</f>
+        <v>2925</v>
+      </c>
+      <c r="F9">
+        <v>530</v>
+      </c>
+      <c r="G9">
+        <v>611</v>
+      </c>
+      <c r="H9">
+        <v>132</v>
+      </c>
+      <c r="I9">
+        <v>79</v>
+      </c>
+      <c r="J9">
+        <v>1376</v>
+      </c>
+      <c r="K9">
+        <v>197</v>
+      </c>
+      <c r="N9" t="s">
+        <v>147</v>
+      </c>
+      <c r="R9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E11" si="1">SUM(F10:K10)</f>
+        <v>4856</v>
+      </c>
+      <c r="F10">
+        <v>558</v>
+      </c>
+      <c r="G10">
+        <v>209</v>
+      </c>
+      <c r="H10">
+        <v>91</v>
+      </c>
+      <c r="I10">
+        <v>87</v>
+      </c>
+      <c r="J10">
+        <v>3259</v>
+      </c>
+      <c r="K10">
+        <v>652</v>
+      </c>
+      <c r="N10" t="s">
+        <v>147</v>
+      </c>
+      <c r="R10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>179758</v>
+      </c>
+      <c r="F11">
+        <v>32572</v>
+      </c>
+      <c r="G11">
+        <v>48752</v>
+      </c>
+      <c r="H11">
+        <v>11287</v>
+      </c>
+      <c r="I11">
+        <v>4655</v>
+      </c>
+      <c r="J11">
+        <v>69688</v>
+      </c>
+      <c r="K11">
+        <v>12804</v>
+      </c>
+      <c r="N11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>146</v>
+      </c>
+      <c r="R11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f>SUM(F9:F11)</f>
+        <v>33660</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:K12" si="2">SUM(G9:G11)</f>
+        <v>49572</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>11510</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>4821</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>74323</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>13653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E16" si="3">SUM(F14:K14)</f>
+        <v>469</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>43</v>
+      </c>
+      <c r="H14">
+        <v>255</v>
+      </c>
+      <c r="I14">
+        <v>104</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>6542</v>
+      </c>
+      <c r="F15">
+        <v>220</v>
+      </c>
+      <c r="G15">
+        <v>373</v>
+      </c>
+      <c r="H15">
+        <v>1695</v>
+      </c>
+      <c r="I15">
+        <v>1775</v>
+      </c>
+      <c r="J15">
+        <v>393</v>
+      </c>
+      <c r="K15">
+        <v>2086</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>6137</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <v>329</v>
+      </c>
+      <c r="I16">
+        <v>973</v>
+      </c>
+      <c r="J16">
+        <v>905</v>
+      </c>
+      <c r="K16">
+        <v>3690</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f>SUM(F14:F16)</f>
+        <v>375</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="4">SUM(G14:G16)</f>
+        <v>506</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17" si="5">SUM(H14:H16)</f>
+        <v>2279</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17" si="6">SUM(I14:I16)</f>
+        <v>2852</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="7">SUM(J14:J16)</f>
+        <v>1314</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17" si="8">SUM(K14:K16)</f>
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E20" si="9">SUM(F19:K19)</f>
+        <v>8337</v>
+      </c>
+      <c r="F19">
+        <v>960</v>
+      </c>
+      <c r="G19">
+        <v>1700</v>
+      </c>
+      <c r="H19">
+        <v>1494</v>
+      </c>
+      <c r="I19">
+        <v>933</v>
+      </c>
+      <c r="J19">
+        <v>1123</v>
+      </c>
+      <c r="K19">
+        <v>2127</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>146</v>
+      </c>
+      <c r="R19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="9"/>
+        <v>64833</v>
+      </c>
+      <c r="F20">
+        <v>3967</v>
+      </c>
+      <c r="G20">
+        <v>3252</v>
+      </c>
+      <c r="H20">
+        <v>4181</v>
+      </c>
+      <c r="I20">
+        <v>7632</v>
+      </c>
+      <c r="J20">
+        <v>13112</v>
+      </c>
+      <c r="K20">
+        <v>32689</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>SUM(F19:F20)</f>
+        <v>4927</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:K21" si="10">SUM(G19:G20)</f>
+        <v>4952</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="10"/>
+        <v>5675</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>8565</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>14235</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>34816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/GroupSpec_monoclinic.xlsx
+++ b/data/GroupSpec_monoclinic.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0E225-4A62-7B44-9E37-24A01468CF8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD94E7-AA58-8543-9A10-AD9D0D02EBE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1560" windowWidth="29500" windowHeight="17000" activeTab="3" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="3280" yWindow="-18380" windowWidth="22980" windowHeight="17000" activeTab="4" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Groups V0" sheetId="2" r:id="rId2"/>
     <sheet name="Groups V1" sheetId="3" r:id="rId3"/>
     <sheet name="Groups V2" sheetId="4" r:id="rId4"/>
+    <sheet name="groups_v3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="201">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -628,6 +629,9 @@
   </si>
   <si>
     <t>total counts</t>
+  </si>
+  <si>
+    <t>h + l = 2n; h, l = 2n</t>
   </si>
 </sst>
 </file>
@@ -7496,7 +7500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DFFAFD-7483-144A-957A-73E2CBBDDA77}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -10176,8 +10180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB10BC37-39A0-404D-8981-2DDCADDC0F1B}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11015,4 +11019,599 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9406A21-5309-FB4C-9C4E-9E8239DEBBF3}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2">
+        <f>SUM(F2:H2)</f>
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <v>89</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3">
+        <f>SUM(F3:H3)</f>
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4">
+        <f>SUM(F4:H4)</f>
+        <v>161</v>
+      </c>
+      <c r="F4">
+        <v>89</v>
+      </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5">
+        <f>SUM(F5:H5)</f>
+        <v>23499</v>
+      </c>
+      <c r="F5">
+        <v>7664</v>
+      </c>
+      <c r="G5">
+        <v>5752</v>
+      </c>
+      <c r="H5">
+        <v>10083</v>
+      </c>
+      <c r="N5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6">
+        <f>SUM(F6:H6)</f>
+        <v>4435</v>
+      </c>
+      <c r="F6">
+        <v>916</v>
+      </c>
+      <c r="G6">
+        <v>794</v>
+      </c>
+      <c r="H6">
+        <v>2725</v>
+      </c>
+      <c r="N6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>8776</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:H7" si="0">SUM(G2:G6)</f>
+        <v>6613</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>12872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9">
+        <f>SUM(F9:H9)</f>
+        <v>2866</v>
+      </c>
+      <c r="F9">
+        <v>1207</v>
+      </c>
+      <c r="G9">
+        <v>909</v>
+      </c>
+      <c r="H9">
+        <v>750</v>
+      </c>
+      <c r="K9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10">
+        <f>SUM(F10:H10)</f>
+        <v>4875</v>
+      </c>
+      <c r="F10">
+        <v>3588</v>
+      </c>
+      <c r="G10">
+        <v>930</v>
+      </c>
+      <c r="H10">
+        <v>357</v>
+      </c>
+      <c r="K10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11">
+        <f>SUM(F11:H11)</f>
+        <v>29342</v>
+      </c>
+      <c r="F11">
+        <v>10407</v>
+      </c>
+      <c r="G11">
+        <v>8900</v>
+      </c>
+      <c r="H11">
+        <v>10035</v>
+      </c>
+      <c r="K11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f>SUM(F9:F11)</f>
+        <v>15202</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12" si="1">SUM(G9:G11)</f>
+        <v>10739</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12" si="2">SUM(H9:H11)</f>
+        <v>11142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14">
+        <f>SUM(F14:H14)</f>
+        <v>450</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>305</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15">
+        <f>SUM(F15:H15)</f>
+        <v>6376</v>
+      </c>
+      <c r="F15">
+        <v>2608</v>
+      </c>
+      <c r="G15">
+        <v>1760</v>
+      </c>
+      <c r="H15">
+        <v>2008</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16">
+        <f>SUM(F16:H16)</f>
+        <v>5968</v>
+      </c>
+      <c r="F16">
+        <v>4614</v>
+      </c>
+      <c r="G16">
+        <v>951</v>
+      </c>
+      <c r="H16">
+        <v>403</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f>SUM(F14:F16)</f>
+        <v>7282</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:H17" si="3">SUM(G14:G16)</f>
+        <v>2796</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19">
+        <f>SUM(F19:H19)</f>
+        <v>8180</v>
+      </c>
+      <c r="F19">
+        <v>4109</v>
+      </c>
+      <c r="G19">
+        <v>1269</v>
+      </c>
+      <c r="H19">
+        <v>2802</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20">
+        <f>SUM(F20:H20)</f>
+        <v>29512</v>
+      </c>
+      <c r="F20">
+        <v>22748</v>
+      </c>
+      <c r="G20">
+        <v>3890</v>
+      </c>
+      <c r="H20">
+        <v>2874</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f>SUM(F19:F20)</f>
+        <v>26857</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:H21" si="4">SUM(G19:G20)</f>
+        <v>5159</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>5676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/GroupSpec_monoclinic.xlsx
+++ b/data/GroupSpec_monoclinic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD94E7-AA58-8543-9A10-AD9D0D02EBE8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36797C9-87D0-3446-9A9B-8F14BD9A3ECB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3280" yWindow="-18380" windowWidth="22980" windowHeight="17000" activeTab="4" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>

--- a/data/GroupSpec_monoclinic.xlsx
+++ b/data/GroupSpec_monoclinic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36797C9-87D0-3446-9A9B-8F14BD9A3ECB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92522DAD-A37B-A64C-BA15-2C44E1363BB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="-18380" windowWidth="22980" windowHeight="17000" activeTab="4" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="2000" yWindow="1780" windowWidth="22980" windowHeight="17000" activeTab="4" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="201">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -11025,13 +11025,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9406A21-5309-FB4C-9C4E-9E8239DEBBF3}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -11254,7 +11256,10 @@
         <v>750</v>
       </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="M9" t="s">
+        <v>148</v>
       </c>
       <c r="O9" t="s">
         <v>147</v>
@@ -11287,7 +11292,10 @@
         <v>357</v>
       </c>
       <c r="K10" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="M10" t="s">
+        <v>148</v>
       </c>
       <c r="O10" t="s">
         <v>147</v>
@@ -11320,7 +11328,10 @@
         <v>10035</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
       </c>
       <c r="N11" t="s">
         <v>146</v>

--- a/data/GroupSpec_monoclinic.xlsx
+++ b/data/GroupSpec_monoclinic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BDC29B-158C-CB4C-B4D4-B6834B0D75A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54E75F-24F0-F541-AB5A-6E7115A48E65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2000" yWindow="1520" windowWidth="22980" windowHeight="17000" activeTab="1" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
@@ -4743,7 +4743,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
